--- a/banco_de_dados.xlsx
+++ b/banco_de_dados.xlsx
@@ -1,43 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Programação\Requisicao_combustivel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247B50E-064D-40F2-A6F7-E4F1E82E9671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Solicitante</t>
+  </si>
+  <si>
+    <t>Motorista</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Teste para buscar valores</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,95 +98,63 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4045D39F-DAAE-4D1E-898F-46F555374D61}" name="Tabela1" displayName="Tabela1" ref="A1:I1048575" totalsRowShown="0">
+  <autoFilter ref="A1:I1048575" xr:uid="{4045D39F-DAAE-4D1E-898F-46F555374D61}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B33E8AC3-E4D9-4ADB-8C9E-8C40A9EFEF9D}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{36953C48-3AA3-41A3-A9E1-18A03307CC63}" name="Solicitante"/>
+    <tableColumn id="3" xr3:uid="{88FE399E-12E9-4BB2-9652-02D28B1112E1}" name="Motorista"/>
+    <tableColumn id="4" xr3:uid="{4FCA8CEA-37E6-4D2D-A968-7F9A9B39DC92}" name="Categoria"/>
+    <tableColumn id="5" xr3:uid="{271E1342-245D-4A7C-A676-038F9ABD2A1C}" name="Quantidade" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7E778FC5-3CEE-4039-82E3-55100CE1D18D}" name="Preço Unitário" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C91F1FAB-9021-49E1-8A6C-769C1DD45341}" name="Total" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{1DC86F93-3CCC-4143-8A78-37E16CEAD85A}" name="Data"/>
+    <tableColumn id="9" xr3:uid="{DA6D3514-D8A7-49F2-A3BF-78289D6BAE2C}" name="Observação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,42 +441,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A147A2BC-FDAA-470C-AF36-21FEF20BDD66}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dois</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>três</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cinco</t>
-        </is>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44888</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/banco_de_dados.xlsx
+++ b/banco_de_dados.xlsx
@@ -1,96 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Programação\Requisicao_combustivel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247B50E-064D-40F2-A6F7-E4F1E82E9671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Solicitante</t>
-  </si>
-  <si>
-    <t>Motorista</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Preço Unitário</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Observação</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>Teste para buscar valores</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,63 +48,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4045D39F-DAAE-4D1E-898F-46F555374D61}" name="Tabela1" displayName="Tabela1" ref="A1:I1048575" totalsRowShown="0">
-  <autoFilter ref="A1:I1048575" xr:uid="{4045D39F-DAAE-4D1E-898F-46F555374D61}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B33E8AC3-E4D9-4ADB-8C9E-8C40A9EFEF9D}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{36953C48-3AA3-41A3-A9E1-18A03307CC63}" name="Solicitante"/>
-    <tableColumn id="3" xr3:uid="{88FE399E-12E9-4BB2-9652-02D28B1112E1}" name="Motorista"/>
-    <tableColumn id="4" xr3:uid="{4FCA8CEA-37E6-4D2D-A968-7F9A9B39DC92}" name="Categoria"/>
-    <tableColumn id="5" xr3:uid="{271E1342-245D-4A7C-A676-038F9ABD2A1C}" name="Quantidade" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{7E778FC5-3CEE-4039-82E3-55100CE1D18D}" name="Preço Unitário" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C91F1FAB-9021-49E1-8A6C-769C1DD45341}" name="Total" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{1DC86F93-3CCC-4143-8A78-37E16CEAD85A}" name="Data"/>
-    <tableColumn id="9" xr3:uid="{DA6D3514-D8A7-49F2-A3BF-78289D6BAE2C}" name="Observação"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,92 +424,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A147A2BC-FDAA-470C-AF36-21FEF20BDD66}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Solicitante</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Motorista</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preço Unitário</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Observação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Teste para buscar valores</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>teste arrumado colunas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>teste do refresh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Filtro de ar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>teste com banco detro da classe</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44888</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/banco_de_dados.xlsx
+++ b/banco_de_dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,10 +831,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -862,6 +860,293 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Filtro de ar</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/banco_de_dados.xlsx
+++ b/banco_de_dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,10 +1116,8 @@
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1147,6 +1145,109 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>30/11/2022</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>30/11/2022</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>30/11/2022</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/banco_de_dados.xlsx
+++ b/banco_de_dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,10 +481,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -493,35 +491,140 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>02/12/2022</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Adilson</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Etanol</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>01/12/2022</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>teste</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>02/12/2022</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>teste att</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>02/12/2022</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>02/12/2022</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>teste top</t>
         </is>
       </c>
     </row>

--- a/banco_de_dados.xlsx
+++ b/banco_de_dados.xlsx
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -534,14 +534,18 @@
           <t>Filtro de óleo</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>200</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -573,12 +577,10 @@
           <t>Gasolina</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>0</v>
       </c>
@@ -608,14 +610,12 @@
           <t>Gasolina</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>

--- a/banco_de_dados.xlsx
+++ b/banco_de_dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,15 +534,11 @@
           <t>Filtro de óleo</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>300</v>
@@ -627,6 +623,1100 @@
           <t>teste top</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>700</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>teste para mostrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Vale combustível</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>teste pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>teste pdf 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Vale combustível</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>debug pdf 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Filtro de ar</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>dados[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>teste pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>teste pdf 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>teste pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>teste pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>teste pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>print var</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">teste </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">teste </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Filtro de óleo</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Gemerson</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Filtro de ar</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
